--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThierryHaddad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C5B102-FD1C-427F-876A-434E203E9198}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E1BF4-F71C-47D6-AEE5-6D63EE18A0F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1166,7 @@
         <v>196</v>
       </c>
       <c r="B11">
-        <v>1606</v>
+        <v>1510</v>
       </c>
       <c r="C11" t="s">
         <v>191</v>
@@ -1183,7 +1183,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>1606</v>
+        <v>1510</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1200,7 +1200,7 @@
         <v>117</v>
       </c>
       <c r="B13">
-        <v>1606</v>
+        <v>1510</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -1217,7 +1217,7 @@
         <v>112</v>
       </c>
       <c r="B14">
-        <v>1606</v>
+        <v>1510</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1234,7 +1234,7 @@
         <v>188</v>
       </c>
       <c r="B15">
-        <v>1606</v>
+        <v>1510</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
@@ -1251,7 +1251,7 @@
         <v>170</v>
       </c>
       <c r="B16">
-        <v>1606</v>
+        <v>1510</v>
       </c>
       <c r="C16" t="s">
         <v>143</v>
@@ -1268,7 +1268,7 @@
         <v>106</v>
       </c>
       <c r="B17">
-        <v>1606</v>
+        <v>1510</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1285,7 +1285,7 @@
         <v>102</v>
       </c>
       <c r="B18">
-        <v>1606</v>
+        <v>1510</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1302,7 +1302,7 @@
         <v>159</v>
       </c>
       <c r="B19">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C19" t="s">
         <v>122</v>
@@ -1319,7 +1319,7 @@
         <v>135</v>
       </c>
       <c r="B20">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -1336,7 +1336,7 @@
         <v>192</v>
       </c>
       <c r="B21">
-        <v>2115</v>
+        <v>2010</v>
       </c>
       <c r="C21" t="s">
         <v>183</v>
@@ -1353,7 +1353,7 @@
         <v>150</v>
       </c>
       <c r="B22">
-        <v>2151</v>
+        <v>2010</v>
       </c>
       <c r="C22" t="s">
         <v>104</v>
@@ -1370,7 +1370,7 @@
         <v>125</v>
       </c>
       <c r="B23">
-        <v>2170</v>
+        <v>2010</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -1387,7 +1387,7 @@
         <v>153</v>
       </c>
       <c r="B24">
-        <v>2222</v>
+        <v>2010</v>
       </c>
       <c r="C24" t="s">
         <v>110</v>
@@ -1404,7 +1404,7 @@
         <v>148</v>
       </c>
       <c r="B25">
-        <v>2250</v>
+        <v>2010</v>
       </c>
       <c r="C25" t="s">
         <v>101</v>
@@ -1421,7 +1421,7 @@
         <v>100</v>
       </c>
       <c r="B26">
-        <v>2287</v>
+        <v>2010</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1438,7 +1438,7 @@
         <v>136</v>
       </c>
       <c r="B27">
-        <v>2334</v>
+        <v>2010</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
@@ -1455,7 +1455,7 @@
         <v>147</v>
       </c>
       <c r="B28">
-        <v>2334</v>
+        <v>2010</v>
       </c>
       <c r="C28" t="s">
         <v>99</v>
@@ -1472,7 +1472,7 @@
         <v>146</v>
       </c>
       <c r="B29">
-        <v>2408</v>
+        <v>2010</v>
       </c>
       <c r="C29" t="s">
         <v>97</v>
@@ -1489,7 +1489,7 @@
         <v>119</v>
       </c>
       <c r="B30">
-        <v>2523</v>
+        <v>2200</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
@@ -1506,7 +1506,7 @@
         <v>181</v>
       </c>
       <c r="B31">
-        <v>2780</v>
+        <v>2200</v>
       </c>
       <c r="C31" t="s">
         <v>164</v>
@@ -1523,7 +1523,7 @@
         <v>161</v>
       </c>
       <c r="B32">
-        <v>2794</v>
+        <v>2200</v>
       </c>
       <c r="C32" t="s">
         <v>125</v>
@@ -1540,7 +1540,7 @@
         <v>133</v>
       </c>
       <c r="B33">
-        <v>2799</v>
+        <v>2200</v>
       </c>
       <c r="C33" t="s">
         <v>71</v>
@@ -1557,7 +1557,7 @@
         <v>157</v>
       </c>
       <c r="B34">
-        <v>2816</v>
+        <v>2200</v>
       </c>
       <c r="C34" t="s">
         <v>118</v>
@@ -1574,7 +1574,7 @@
         <v>178</v>
       </c>
       <c r="B35">
-        <v>2987</v>
+        <v>2200</v>
       </c>
       <c r="C35" t="s">
         <v>158</v>
@@ -1591,7 +1591,7 @@
         <v>154</v>
       </c>
       <c r="B36">
-        <v>3036</v>
+        <v>3010</v>
       </c>
       <c r="C36" t="s">
         <v>112</v>
@@ -1608,7 +1608,7 @@
         <v>175</v>
       </c>
       <c r="B37">
-        <v>3126</v>
+        <v>3010</v>
       </c>
       <c r="C37" t="s">
         <v>153</v>
@@ -1625,7 +1625,7 @@
         <v>134</v>
       </c>
       <c r="B38">
-        <v>3255</v>
+        <v>3010</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>
@@ -1642,7 +1642,7 @@
         <v>183</v>
       </c>
       <c r="B39">
-        <v>3319</v>
+        <v>3010</v>
       </c>
       <c r="C39" t="s">
         <v>168</v>
@@ -1659,7 +1659,7 @@
         <v>186</v>
       </c>
       <c r="B40">
-        <v>3361</v>
+        <v>3010</v>
       </c>
       <c r="C40" t="s">
         <v>173</v>
@@ -1676,7 +1676,7 @@
         <v>111</v>
       </c>
       <c r="B41">
-        <v>3491</v>
+        <v>3010</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -1693,7 +1693,7 @@
         <v>132</v>
       </c>
       <c r="B42">
-        <v>3548</v>
+        <v>3010</v>
       </c>
       <c r="C42" t="s">
         <v>69</v>
@@ -1710,7 +1710,7 @@
         <v>172</v>
       </c>
       <c r="B43">
-        <v>3558</v>
+        <v>3010</v>
       </c>
       <c r="C43" t="s">
         <v>147</v>
@@ -1727,7 +1727,7 @@
         <v>144</v>
       </c>
       <c r="B44">
-        <v>3601</v>
+        <v>3010</v>
       </c>
       <c r="C44" t="s">
         <v>93</v>
@@ -1744,7 +1744,7 @@
         <v>120</v>
       </c>
       <c r="B45">
-        <v>3616</v>
+        <v>3010</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -1761,7 +1761,7 @@
         <v>184</v>
       </c>
       <c r="B46">
-        <v>3649</v>
+        <v>3110</v>
       </c>
       <c r="C46" t="s">
         <v>170</v>
@@ -1778,7 +1778,7 @@
         <v>138</v>
       </c>
       <c r="B47">
-        <v>3740</v>
+        <v>3110</v>
       </c>
       <c r="C47" t="s">
         <v>81</v>
@@ -1795,7 +1795,7 @@
         <v>195</v>
       </c>
       <c r="B48">
-        <v>3748</v>
+        <v>3110</v>
       </c>
       <c r="C48" t="s">
         <v>189</v>
@@ -1812,7 +1812,7 @@
         <v>143</v>
       </c>
       <c r="B49">
-        <v>3767</v>
+        <v>3110</v>
       </c>
       <c r="C49" t="s">
         <v>91</v>
@@ -1829,7 +1829,7 @@
         <v>122</v>
       </c>
       <c r="B50">
-        <v>3780</v>
+        <v>3110</v>
       </c>
       <c r="C50" t="s">
         <v>49</v>
@@ -1846,7 +1846,7 @@
         <v>197</v>
       </c>
       <c r="B51">
-        <v>3846</v>
+        <v>3110</v>
       </c>
       <c r="C51" t="s">
         <v>193</v>
@@ -1863,7 +1863,7 @@
         <v>185</v>
       </c>
       <c r="B52">
-        <v>3865</v>
+        <v>3110</v>
       </c>
       <c r="C52" t="s">
         <v>172</v>
@@ -1880,7 +1880,7 @@
         <v>124</v>
       </c>
       <c r="B53">
-        <v>3888</v>
+        <v>3110</v>
       </c>
       <c r="C53" t="s">
         <v>53</v>
@@ -1897,7 +1897,7 @@
         <v>193</v>
       </c>
       <c r="B54">
-        <v>3896</v>
+        <v>3110</v>
       </c>
       <c r="C54" t="s">
         <v>185</v>
@@ -1914,7 +1914,7 @@
         <v>167</v>
       </c>
       <c r="B55">
-        <v>3969</v>
+        <v>3110</v>
       </c>
       <c r="C55" t="s">
         <v>137</v>
@@ -1931,7 +1931,7 @@
         <v>151</v>
       </c>
       <c r="B56">
-        <v>4034</v>
+        <v>4010</v>
       </c>
       <c r="C56" t="s">
         <v>106</v>
@@ -1948,7 +1948,7 @@
         <v>160</v>
       </c>
       <c r="B57">
-        <v>4077</v>
+        <v>4010</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
@@ -1965,7 +1965,7 @@
         <v>177</v>
       </c>
       <c r="B58">
-        <v>4159</v>
+        <v>4010</v>
       </c>
       <c r="C58" t="s">
         <v>156</v>
@@ -1982,7 +1982,7 @@
         <v>131</v>
       </c>
       <c r="B59">
-        <v>4176</v>
+        <v>4010</v>
       </c>
       <c r="C59" t="s">
         <v>67</v>
@@ -1999,7 +1999,7 @@
         <v>115</v>
       </c>
       <c r="B60">
-        <v>4177</v>
+        <v>4010</v>
       </c>
       <c r="C60" t="s">
         <v>35</v>
@@ -2016,7 +2016,7 @@
         <v>182</v>
       </c>
       <c r="B61">
-        <v>4190</v>
+        <v>4010</v>
       </c>
       <c r="C61" t="s">
         <v>166</v>
@@ -2033,7 +2033,7 @@
         <v>155</v>
       </c>
       <c r="B62">
-        <v>4393</v>
+        <v>4010</v>
       </c>
       <c r="C62" t="s">
         <v>114</v>
@@ -2050,7 +2050,7 @@
         <v>139</v>
       </c>
       <c r="B63">
-        <v>4471</v>
+        <v>4010</v>
       </c>
       <c r="C63" t="s">
         <v>83</v>
@@ -2067,7 +2067,7 @@
         <v>149</v>
       </c>
       <c r="B64">
-        <v>4512</v>
+        <v>4010</v>
       </c>
       <c r="C64" t="s">
         <v>103</v>
@@ -2084,7 +2084,7 @@
         <v>127</v>
       </c>
       <c r="B65">
-        <v>4550</v>
+        <v>4010</v>
       </c>
       <c r="C65" t="s">
         <v>59</v>
@@ -2101,7 +2101,7 @@
         <v>199</v>
       </c>
       <c r="B66">
-        <v>4563</v>
+        <v>4010</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
@@ -2118,7 +2118,7 @@
         <v>109</v>
       </c>
       <c r="B67">
-        <v>4592</v>
+        <v>4010</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -2135,7 +2135,7 @@
         <v>191</v>
       </c>
       <c r="B68">
-        <v>4643</v>
+        <v>4010</v>
       </c>
       <c r="C68" t="s">
         <v>182</v>
@@ -2152,7 +2152,7 @@
         <v>129</v>
       </c>
       <c r="B69">
-        <v>4667</v>
+        <v>4010</v>
       </c>
       <c r="C69" t="s">
         <v>63</v>
@@ -2169,7 +2169,7 @@
         <v>118</v>
       </c>
       <c r="B70">
-        <v>4714</v>
+        <v>4010</v>
       </c>
       <c r="C70" t="s">
         <v>41</v>
@@ -2186,7 +2186,7 @@
         <v>101</v>
       </c>
       <c r="B71">
-        <v>4723</v>
+        <v>4010</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -2203,7 +2203,7 @@
         <v>174</v>
       </c>
       <c r="B72">
-        <v>4736</v>
+        <v>4010</v>
       </c>
       <c r="C72" t="s">
         <v>151</v>
@@ -2220,7 +2220,7 @@
         <v>158</v>
       </c>
       <c r="B73">
-        <v>4781</v>
+        <v>4010</v>
       </c>
       <c r="C73" t="s">
         <v>120</v>
@@ -2237,7 +2237,7 @@
         <v>110</v>
       </c>
       <c r="B74">
-        <v>4958</v>
+        <v>4010</v>
       </c>
       <c r="C74" t="s">
         <v>25</v>
@@ -2254,7 +2254,7 @@
         <v>169</v>
       </c>
       <c r="B75">
-        <v>5016</v>
+        <v>5010</v>
       </c>
       <c r="C75" t="s">
         <v>141</v>
@@ -2271,7 +2271,7 @@
         <v>107</v>
       </c>
       <c r="B76">
-        <v>5057</v>
+        <v>5010</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -2288,7 +2288,7 @@
         <v>114</v>
       </c>
       <c r="B77">
-        <v>5226</v>
+        <v>5010</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
@@ -2305,7 +2305,7 @@
         <v>198</v>
       </c>
       <c r="B78">
-        <v>5452</v>
+        <v>5010</v>
       </c>
       <c r="C78" t="s">
         <v>195</v>
@@ -2322,7 +2322,7 @@
         <v>145</v>
       </c>
       <c r="B79">
-        <v>5494</v>
+        <v>5010</v>
       </c>
       <c r="C79" t="s">
         <v>95</v>
@@ -2339,7 +2339,7 @@
         <v>116</v>
       </c>
       <c r="B80">
-        <v>5572</v>
+        <v>5010</v>
       </c>
       <c r="C80" t="s">
         <v>37</v>
@@ -2356,7 +2356,7 @@
         <v>162</v>
       </c>
       <c r="B81">
-        <v>5614</v>
+        <v>5010</v>
       </c>
       <c r="C81" t="s">
         <v>127</v>
@@ -2373,7 +2373,7 @@
         <v>156</v>
       </c>
       <c r="B82">
-        <v>5668</v>
+        <v>5010</v>
       </c>
       <c r="C82" t="s">
         <v>116</v>
@@ -2390,7 +2390,7 @@
         <v>126</v>
       </c>
       <c r="B83">
-        <v>5746</v>
+        <v>5010</v>
       </c>
       <c r="C83" t="s">
         <v>57</v>
@@ -2407,7 +2407,7 @@
         <v>128</v>
       </c>
       <c r="B84">
-        <v>5836</v>
+        <v>5010</v>
       </c>
       <c r="C84" t="s">
         <v>61</v>
@@ -2424,7 +2424,7 @@
         <v>166</v>
       </c>
       <c r="B85">
-        <v>6166</v>
+        <v>6010</v>
       </c>
       <c r="C85" t="s">
         <v>135</v>
@@ -2441,7 +2441,7 @@
         <v>130</v>
       </c>
       <c r="B86">
-        <v>6315</v>
+        <v>6010</v>
       </c>
       <c r="C86" t="s">
         <v>65</v>
@@ -2458,7 +2458,7 @@
         <v>105</v>
       </c>
       <c r="B87">
-        <v>6335</v>
+        <v>6010</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
@@ -2475,7 +2475,7 @@
         <v>194</v>
       </c>
       <c r="B88">
-        <v>6343</v>
+        <v>6010</v>
       </c>
       <c r="C88" t="s">
         <v>187</v>
@@ -2492,7 +2492,7 @@
         <v>113</v>
       </c>
       <c r="B89">
-        <v>6437</v>
+        <v>6010</v>
       </c>
       <c r="C89" t="s">
         <v>31</v>
@@ -2509,7 +2509,7 @@
         <v>190</v>
       </c>
       <c r="B90">
-        <v>6581</v>
+        <v>6010</v>
       </c>
       <c r="C90" t="s">
         <v>180</v>
@@ -2526,7 +2526,7 @@
         <v>179</v>
       </c>
       <c r="B91">
-        <v>6590</v>
+        <v>6010</v>
       </c>
       <c r="C91" t="s">
         <v>160</v>
@@ -2543,7 +2543,7 @@
         <v>152</v>
       </c>
       <c r="B92">
-        <v>6624</v>
+        <v>6010</v>
       </c>
       <c r="C92" t="s">
         <v>108</v>
@@ -2560,7 +2560,7 @@
         <v>164</v>
       </c>
       <c r="B93">
-        <v>6637</v>
+        <v>6010</v>
       </c>
       <c r="C93" t="s">
         <v>131</v>
@@ -2577,7 +2577,7 @@
         <v>168</v>
       </c>
       <c r="B94">
-        <v>6641</v>
+        <v>6010</v>
       </c>
       <c r="C94" t="s">
         <v>139</v>
@@ -2594,7 +2594,7 @@
         <v>163</v>
       </c>
       <c r="B95">
-        <v>6664</v>
+        <v>6010</v>
       </c>
       <c r="C95" t="s">
         <v>129</v>
@@ -2611,7 +2611,7 @@
         <v>103</v>
       </c>
       <c r="B96">
-        <v>6688</v>
+        <v>6010</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -2628,7 +2628,7 @@
         <v>189</v>
       </c>
       <c r="B97">
-        <v>6694</v>
+        <v>6010</v>
       </c>
       <c r="C97" t="s">
         <v>178</v>
@@ -2645,7 +2645,7 @@
         <v>176</v>
       </c>
       <c r="B98">
-        <v>6822</v>
+        <v>6010</v>
       </c>
       <c r="C98" t="s">
         <v>155</v>
@@ -2662,7 +2662,7 @@
         <v>123</v>
       </c>
       <c r="B99">
-        <v>6839</v>
+        <v>6010</v>
       </c>
       <c r="C99" t="s">
         <v>51</v>
@@ -2679,7 +2679,7 @@
         <v>180</v>
       </c>
       <c r="B100">
-        <v>6844</v>
+        <v>6010</v>
       </c>
       <c r="C100" t="s">
         <v>162</v>
@@ -2696,7 +2696,7 @@
         <v>173</v>
       </c>
       <c r="B101">
-        <v>6881</v>
+        <v>6010</v>
       </c>
       <c r="C101" t="s">
         <v>149</v>
